--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf13-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf13-Sdc2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.665239</v>
+        <v>0.6848073333333332</v>
       </c>
       <c r="H2">
-        <v>1.995717</v>
+        <v>2.054422</v>
       </c>
       <c r="I2">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442471</v>
       </c>
       <c r="J2">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442472</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.321445333333333</v>
+        <v>0.5203476666666668</v>
       </c>
       <c r="N2">
-        <v>3.964336</v>
+        <v>1.561043</v>
       </c>
       <c r="O2">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="P2">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="Q2">
-        <v>0.8790769721013334</v>
+        <v>0.3563378980162222</v>
       </c>
       <c r="R2">
-        <v>7.911692748912</v>
+        <v>3.207041082146</v>
       </c>
       <c r="S2">
-        <v>0.003802718148054192</v>
+        <v>0.0009313534166567637</v>
       </c>
       <c r="T2">
-        <v>0.003802718148054193</v>
+        <v>0.0009313534166567641</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.665239</v>
+        <v>0.6848073333333332</v>
       </c>
       <c r="H3">
-        <v>1.995717</v>
+        <v>2.054422</v>
       </c>
       <c r="I3">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442471</v>
       </c>
       <c r="J3">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442472</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>317.889679</v>
       </c>
       <c r="O3">
-        <v>0.819340166699254</v>
+        <v>0.8361295370252257</v>
       </c>
       <c r="P3">
-        <v>0.8193401666992541</v>
+        <v>0.8361295370252259</v>
       </c>
       <c r="Q3">
-        <v>70.49087072276033</v>
+        <v>72.56439445672643</v>
       </c>
       <c r="R3">
-        <v>634.417836504843</v>
+        <v>653.0795501105379</v>
       </c>
       <c r="S3">
-        <v>0.3049299684518219</v>
+        <v>0.189660143030379</v>
       </c>
       <c r="T3">
-        <v>0.3049299684518219</v>
+        <v>0.189660143030379</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.665239</v>
+        <v>0.6848073333333332</v>
       </c>
       <c r="H4">
-        <v>1.995717</v>
+        <v>2.054422</v>
       </c>
       <c r="I4">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442471</v>
       </c>
       <c r="J4">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442472</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.04284166666666</v>
+        <v>20.24706</v>
       </c>
       <c r="N4">
-        <v>66.128525</v>
+        <v>60.74118</v>
       </c>
       <c r="O4">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="P4">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="Q4">
-        <v>14.66375794749167</v>
+        <v>13.86533516644</v>
       </c>
       <c r="R4">
-        <v>131.973821527425</v>
+        <v>124.78801649796</v>
       </c>
       <c r="S4">
-        <v>0.06343260059731448</v>
+        <v>0.0362395561972114</v>
       </c>
       <c r="T4">
-        <v>0.0634326005973145</v>
+        <v>0.03623955619721141</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.983764</v>
       </c>
       <c r="I5">
-        <v>0.1834542731230215</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="J5">
-        <v>0.1834542731230214</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.321445333333333</v>
+        <v>0.5203476666666668</v>
       </c>
       <c r="N5">
-        <v>3.964336</v>
+        <v>1.561043</v>
       </c>
       <c r="O5">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="P5">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="Q5">
-        <v>0.4333301156337778</v>
+        <v>0.1706331006502222</v>
       </c>
       <c r="R5">
-        <v>3.899971040704</v>
+        <v>1.535697905852</v>
       </c>
       <c r="S5">
-        <v>0.001874502855967246</v>
+        <v>0.0004459804083990167</v>
       </c>
       <c r="T5">
-        <v>0.001874502855967246</v>
+        <v>0.0004459804083990168</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.983764</v>
       </c>
       <c r="I6">
-        <v>0.1834542731230215</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="J6">
-        <v>0.1834542731230214</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>317.889679</v>
       </c>
       <c r="O6">
-        <v>0.819340166699254</v>
+        <v>0.8361295370252257</v>
       </c>
       <c r="P6">
-        <v>0.8193401666992541</v>
+        <v>0.8361295370252259</v>
       </c>
       <c r="Q6">
         <v>34.74760246352844</v>
@@ -818,10 +818,10 @@
         <v>312.728422171756</v>
       </c>
       <c r="S6">
-        <v>0.1503114547223069</v>
+        <v>0.09081913109776753</v>
       </c>
       <c r="T6">
-        <v>0.1503114547223069</v>
+        <v>0.09081913109776754</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.983764</v>
       </c>
       <c r="I7">
-        <v>0.1834542731230215</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="J7">
-        <v>0.1834542731230214</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.04284166666666</v>
+        <v>20.24706</v>
       </c>
       <c r="N7">
-        <v>66.128525</v>
+        <v>60.74118</v>
       </c>
       <c r="O7">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="P7">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="Q7">
-        <v>7.228318029788888</v>
+        <v>6.639442911280001</v>
       </c>
       <c r="R7">
-        <v>65.0548622681</v>
+        <v>59.75498620152</v>
       </c>
       <c r="S7">
-        <v>0.03126831554474732</v>
+        <v>0.01735338249044913</v>
       </c>
       <c r="T7">
-        <v>0.03126831554474733</v>
+        <v>0.01735338249044913</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7943223333333332</v>
+        <v>2.006290666666667</v>
       </c>
       <c r="H8">
-        <v>2.382967</v>
+        <v>6.018872</v>
       </c>
       <c r="I8">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591371</v>
       </c>
       <c r="J8">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591372</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.321445333333333</v>
+        <v>0.5203476666666668</v>
       </c>
       <c r="N8">
-        <v>3.964336</v>
+        <v>1.561043</v>
       </c>
       <c r="O8">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="P8">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="Q8">
-        <v>1.049653540545778</v>
+        <v>1.043968667055111</v>
       </c>
       <c r="R8">
-        <v>9.446881864911999</v>
+        <v>9.395718003496</v>
       </c>
       <c r="S8">
-        <v>0.00454059962264903</v>
+        <v>0.002728600551210866</v>
       </c>
       <c r="T8">
-        <v>0.004540599622649031</v>
+        <v>0.002728600551210867</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7943223333333332</v>
+        <v>2.006290666666667</v>
       </c>
       <c r="H9">
-        <v>2.382967</v>
+        <v>6.018872</v>
       </c>
       <c r="I9">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591371</v>
       </c>
       <c r="J9">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591372</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>317.889679</v>
       </c>
       <c r="O9">
-        <v>0.819340166699254</v>
+        <v>0.8361295370252257</v>
       </c>
       <c r="P9">
-        <v>0.8193401666992541</v>
+        <v>0.8361295370252259</v>
       </c>
       <c r="Q9">
-        <v>84.16895718862143</v>
+        <v>212.5930320024542</v>
       </c>
       <c r="R9">
-        <v>757.5206146975929</v>
+        <v>1913.337288022088</v>
       </c>
       <c r="S9">
-        <v>0.3640987435251253</v>
+        <v>0.5556502628970792</v>
       </c>
       <c r="T9">
-        <v>0.3640987435251254</v>
+        <v>0.5556502628970793</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7943223333333332</v>
+        <v>2.006290666666667</v>
       </c>
       <c r="H10">
-        <v>2.382967</v>
+        <v>6.018872</v>
       </c>
       <c r="I10">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591371</v>
       </c>
       <c r="J10">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591372</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.04284166666666</v>
+        <v>20.24706</v>
       </c>
       <c r="N10">
-        <v>66.128525</v>
+        <v>60.74118</v>
       </c>
       <c r="O10">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="P10">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="Q10">
-        <v>17.50912142596388</v>
+        <v>40.62148750544</v>
       </c>
       <c r="R10">
-        <v>157.582092833675</v>
+        <v>365.59338754896</v>
       </c>
       <c r="S10">
-        <v>0.07574109653201366</v>
+        <v>0.106171589910847</v>
       </c>
       <c r="T10">
-        <v>0.07574109653201368</v>
+        <v>0.1061715899108471</v>
       </c>
     </row>
   </sheetData>
